--- a/data/trans_bre/P14B24_2016_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14B24_2016_2023-Edad-trans_bre.xlsx
@@ -611,14 +611,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8941413600414748</v>
+        <v>0.9888248275336801</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.980232074920746</v>
+        <v>-1.879764313517657</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>-0.665418300107216</v>
+        <v>-0.6560878039648035</v>
       </c>
     </row>
     <row r="6">
@@ -629,14 +629,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.278130372794991</v>
+        <v>4.311003065424988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.754907271615445</v>
+        <v>5.211985056642795</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>7.320357741603392</v>
+        <v>8.196999784994233</v>
       </c>
     </row>
     <row r="7">
@@ -654,13 +654,13 @@
         <v>0.750621631550763</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.693284068987065</v>
+        <v>2.693284068987064</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>2.3036196085291</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2.218753633278996</v>
+        <v>2.218753633278995</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005358948633663816</v>
+        <v>-0.1244068061860171</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6097394592771002</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>-0.6029565304906176</v>
-      </c>
+        <v>0.6423655762184646</v>
+      </c>
+      <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>0.1001134794786962</v>
+        <v>0.04579522445825114</v>
       </c>
     </row>
     <row r="9">
@@ -691,14 +689,14 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.90093211918168</v>
+        <v>1.829239295923612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.120354943238238</v>
+        <v>4.949138315484771</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>12.37698626144089</v>
+        <v>12.26144957037063</v>
       </c>
     </row>
     <row r="10">
@@ -716,13 +714,13 @@
         <v>2.233720500727472</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6016550978552603</v>
+        <v>0.6016550978552609</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.60077226364821</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1974977715289279</v>
+        <v>0.1974977715289281</v>
       </c>
     </row>
     <row r="11">
@@ -733,16 +731,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9680254340659807</v>
+        <v>0.8775703659644807</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.504607751026648</v>
+        <v>-1.597849344928528</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.3540170738634343</v>
+        <v>0.394018877514552</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3677415313691117</v>
+        <v>-0.3618685846519624</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +751,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.720244711106945</v>
+        <v>3.830365248035687</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.576517061864918</v>
+        <v>2.383294840703685</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>8.983128828219723</v>
+        <v>9.642198918139435</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.275441882694784</v>
+        <v>1.202280848476197</v>
       </c>
     </row>
     <row r="13">
@@ -797,16 +795,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5969477310484429</v>
+        <v>0.6933370392698033</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.775039730089183</v>
+        <v>1.589585044001685</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1714015200732998</v>
+        <v>0.136692544347647</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3580402736821859</v>
+        <v>0.3392298838330001</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +815,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.884517306698863</v>
+        <v>4.687485784325548</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.77674788855876</v>
+        <v>5.79780575752757</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.537586275960931</v>
+        <v>3.141870078847929</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.478397213328212</v>
+        <v>2.487056167240716</v>
       </c>
     </row>
     <row r="16">
@@ -861,16 +859,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.342172847782699</v>
+        <v>1.432392435570876</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.946341350925182</v>
+        <v>2.680395160993253</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.3243473231100814</v>
+        <v>0.419679041999606</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.5775564435335262</v>
+        <v>0.5158196302900058</v>
       </c>
     </row>
     <row r="18">
@@ -881,16 +879,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.500747990370837</v>
+        <v>6.386057289350584</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.645806147980824</v>
+        <v>7.495270600859692</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6.767940598556925</v>
+        <v>6.806833276915939</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.896163039570931</v>
+        <v>2.688719443028747</v>
       </c>
     </row>
     <row r="19">
@@ -908,13 +906,13 @@
         <v>5.537843309472594</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>5.856535744613875</v>
+        <v>5.856535744613874</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>6.47081739354585</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3.319864458309103</v>
+        <v>3.319864458309102</v>
       </c>
     </row>
     <row r="20">
@@ -925,16 +923,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.049169840461395</v>
+        <v>3.179434600408264</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.926466360702881</v>
+        <v>3.676489675008077</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.384200473633878</v>
+        <v>1.154927333265552</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1.301054664300908</v>
+        <v>1.274540425441971</v>
       </c>
     </row>
     <row r="21">
@@ -945,14 +943,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.603711046930645</v>
+        <v>8.466874603435341</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.076397319726819</v>
-      </c>
-      <c r="E21" s="6" t="inlineStr"/>
+        <v>8.015950527499605</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>27.14690609026018</v>
+      </c>
       <c r="F21" s="6" t="n">
-        <v>7.664117078135808</v>
+        <v>7.602416345063266</v>
       </c>
     </row>
     <row r="22">
@@ -970,13 +970,13 @@
         <v>5.771099714637359</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>4.154373827265549</v>
+        <v>4.154373827265552</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>4.195669848538738</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1.22568670737963</v>
+        <v>1.225686707379631</v>
       </c>
     </row>
     <row r="23">
@@ -987,16 +987,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.095756130458894</v>
+        <v>2.85403442063205</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.675406377823618</v>
+        <v>1.355012173930932</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.8245360942731078</v>
+        <v>0.6557051575251256</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.2800046774545458</v>
+        <v>0.2577433105333392</v>
       </c>
     </row>
     <row r="24">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.422729153696812</v>
+        <v>9.188147989161013</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.707110605802219</v>
+        <v>6.635593230973867</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>21.81598313482332</v>
+        <v>18.59794859429023</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3.031487835474136</v>
+        <v>3.159046075073669</v>
       </c>
     </row>
     <row r="25">
@@ -1034,7 +1034,7 @@
         <v>3.045104456823021</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>3.40942519557154</v>
+        <v>3.409425195571542</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>2.783838278419422</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.251094289297745</v>
+        <v>2.325266348334469</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.48606817594593</v>
+        <v>2.507269796780548</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.539485260789245</v>
+        <v>1.664646967741071</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.7734978879983243</v>
+        <v>0.7395693706193074</v>
       </c>
     </row>
     <row r="27">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.898424676715557</v>
+        <v>3.829428054668911</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.386690859167711</v>
+        <v>4.343407608113914</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.377529573099556</v>
+        <v>4.460152559382689</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.904857216561038</v>
+        <v>1.918791795417332</v>
       </c>
     </row>
     <row r="28">
